--- a/backend/Output.xlsx
+++ b/backend/Output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,12 +486,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Avenida Departamental, La Florida</t>
+          <t>Vía Azul, Puerto Montt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$ 560.000</t>
+          <t>UF 15,79</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -506,27 +506,27 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>$75.000 / Mes</t>
+          <t>$50.000 / Mes</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/zp5lvsr1mapqp3kxda3dyi8cryqw</t>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/9djwc77e0lb5ejdsq4ljll75scwq</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>67 m2</t>
+          <t>52 m2</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Orientación este</t>
+          <t>Orientación sur</t>
         </is>
       </c>
     </row>
@@ -536,17 +536,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Novena Avenida, San Miguel</t>
+          <t>Vía Azul, Puerto Montt</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$ 390.000</t>
+          <t>UF 15,39</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1 dormitorio</t>
+          <t>2 dormitorios</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -556,12 +556,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>$80.000 / Mes</t>
+          <t>$50.000 / Mes</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/kngaqmc0he1e3o679xl34vku3ts2</t>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/htfguzjlb5i1phqz7127r4e3x3jj</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -571,12 +571,12 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>33 m2</t>
+          <t>52 m2</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Orientación sur,oeste</t>
+          <t>Orientación sur</t>
         </is>
       </c>
     </row>
@@ -586,17 +586,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Avenida Punta Arenas, La Florida</t>
+          <t>Vía Azul, Puerto Montt</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$ 420.000</t>
+          <t>UF 15,22</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1 dormitorio</t>
+          <t>2 dormitorios</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/2dx1yg44g7xa13g3f2yoew5uwslp</t>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/xl0359a4jbnh3fwlzv6ckpq3bd1p</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -621,12 +621,12 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>38 m2</t>
+          <t>53 m2</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Orientación oeste</t>
+          <t>Orientación sur</t>
         </is>
       </c>
     </row>
@@ -636,17 +636,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Avenida Recoleta, Recoleta</t>
+          <t>Vía Azul, Puerto Montt</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$ 680.000</t>
+          <t>UF 15,39</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3 dormitorios</t>
+          <t>2 dormitorios</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -656,12 +656,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>$90.000 / Mes</t>
+          <t>$50.000 / Mes</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/tlp9jni4awhj9fef13is1mepqd40</t>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/4t3ry5wa4tuhmf63qrvqviuhmtnp</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -671,12 +671,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>82 m2</t>
+          <t>52 m2</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Orientación norte</t>
+          <t>Orientación sur</t>
         </is>
       </c>
     </row>
@@ -686,17 +686,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Santo Domingo, Santiago</t>
+          <t>Vía Azul, Puerto Montt</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$ 470.000</t>
+          <t>UF 13,85</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1 dormitorio</t>
+          <t>2 dormitorios</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -706,12 +706,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>$100.000 / Mes</t>
+          <t>$50.000 / Mes</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/q38qncvc566wmi0loluksy64ml7n</t>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/2et6sm4u1aerk3yqqtl2ilsg55ho</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -726,7 +726,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Orientación oeste</t>
+          <t>Orientación norte</t>
         </is>
       </c>
     </row>
@@ -736,347 +736,47 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Avenida Departamental, La Florida</t>
+          <t>Vía Azul, Puerto Montt</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>UF 10,45</t>
+          <t>UF 13,85</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1 dormitorio</t>
+          <t>2 dormitorios</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Sin estacionamiento</t>
+          <t>1 estacionamiento</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>$65.000 / Mes</t>
+          <t>$50.000 / Mes</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/rqp3bklrjc0ubfk0slvl3z1i96n5</t>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/2nljqhz9z96s0utc8s30szxpjim8</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>37 m2</t>
+          <t>52 m2</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Orientación este</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Argomedo, Santiago</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>$ 400.000</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1 dormitorio</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>1 estacionamiento</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>$60.000 / Mes</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/v77y0sdusll1ar1ojx83u8k405x1</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>35 m2</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Orientación este</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Avenida Departamental, La Florida</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>$ 530.000</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2 dormitorios</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>1 estacionamiento</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>$75.000 / Mes</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/qcn2zw441tnxd37yp5flg29hcsyv</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>68 m2</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Orientación este</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Avenida Departamental, La Florida</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>$ 420.000</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1 dormitorio</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1 estacionamiento</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>$65.000 / Mes</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/mxzpf8o809m3dy8alzieat6b1uiy</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>37 m2</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Orientación este</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Avenida Departamental, La Florida</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>$ 370.000</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1 dormitorio</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Sin estacionamiento</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>$65.000 / Mes</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/crhoxn4sufvznmxgi94c8k8mw2r4</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>37 m2</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Orientación este</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Coronel Souper, Estación Central</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>$ 340.000</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2 dormitorios</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Sin estacionamiento</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>$45.000 / Mes</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/x7wleewqw5ylyygtt4c5sc1454n5</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>40 m2</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Orientación este</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Briones Luco, La Cisterna</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>$ 400.000</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2 dormitorios</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>1 estacionamiento</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>$70.000 / Mes</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/n08xehq8sj6a45mlvxah82jq4irr</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>45 m2</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Orientación este</t>
+          <t>Orientación sur</t>
         </is>
       </c>
     </row>

--- a/backend/Output.xlsx
+++ b/backend/Output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,12 +486,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vía Azul, Puerto Montt</t>
+          <t>Avenida Departamental, La Florida</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>UF 15,79</t>
+          <t>$ 560.000</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -506,27 +506,27 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>$50.000 / Mes</t>
+          <t>$75.000 / Mes</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/9djwc77e0lb5ejdsq4ljll75scwq</t>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/zp5lvsr1mapqp3kxda3dyi8cryqw</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>52 m2</t>
+          <t>67 m2</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Orientación sur</t>
+          <t>Orientación este</t>
         </is>
       </c>
     </row>
@@ -536,17 +536,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vía Azul, Puerto Montt</t>
+          <t>Novena Avenida, San Miguel</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>UF 15,39</t>
+          <t>$ 390.000</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2 dormitorios</t>
+          <t>1 dormitorio</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -556,12 +556,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>$50.000 / Mes</t>
+          <t>$80.000 / Mes</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/htfguzjlb5i1phqz7127r4e3x3jj</t>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/kngaqmc0he1e3o679xl34vku3ts2</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -571,12 +571,12 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>52 m2</t>
+          <t>33 m2</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Orientación sur</t>
+          <t>Orientación sur,oeste</t>
         </is>
       </c>
     </row>
@@ -586,17 +586,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Vía Azul, Puerto Montt</t>
+          <t>Avenida Punta Arenas, La Florida</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>UF 15,22</t>
+          <t>$ 420.000</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2 dormitorios</t>
+          <t>1 dormitorio</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/xl0359a4jbnh3fwlzv6ckpq3bd1p</t>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/2dx1yg44g7xa13g3f2yoew5uwslp</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -621,12 +621,12 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>53 m2</t>
+          <t>38 m2</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Orientación sur</t>
+          <t>Orientación oeste</t>
         </is>
       </c>
     </row>
@@ -636,17 +636,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Vía Azul, Puerto Montt</t>
+          <t>Avenida Recoleta, Recoleta</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>UF 15,39</t>
+          <t>$ 680.000</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2 dormitorios</t>
+          <t>3 dormitorios</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -656,12 +656,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>$50.000 / Mes</t>
+          <t>$90.000 / Mes</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/4t3ry5wa4tuhmf63qrvqviuhmtnp</t>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/tlp9jni4awhj9fef13is1mepqd40</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -671,12 +671,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>52 m2</t>
+          <t>82 m2</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Orientación sur</t>
+          <t>Orientación norte</t>
         </is>
       </c>
     </row>
@@ -686,17 +686,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Vía Azul, Puerto Montt</t>
+          <t>Santo Domingo, Santiago</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>UF 13,85</t>
+          <t>$ 470.000</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2 dormitorios</t>
+          <t>1 dormitorio</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -706,12 +706,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>$50.000 / Mes</t>
+          <t>$100.000 / Mes</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/2et6sm4u1aerk3yqqtl2ilsg55ho</t>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/q38qncvc566wmi0loluksy64ml7n</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -726,7 +726,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Orientación norte</t>
+          <t>Orientación oeste</t>
         </is>
       </c>
     </row>
@@ -736,45 +736,6645 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Avenida Departamental, La Florida</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>UF 10,45</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1 dormitorio</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Sin estacionamiento</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>$65.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/rqp3bklrjc0ubfk0slvl3z1i96n5</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>37 m2</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Orientación este</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Argomedo, Santiago</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>$ 400.000</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1 dormitorio</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1 estacionamiento</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>$60.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/v77y0sdusll1ar1ojx83u8k405x1</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>35 m2</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Orientación este</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Avenida Departamental, La Florida</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>$ 530.000</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2 dormitorios</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1 estacionamiento</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>$75.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/qcn2zw441tnxd37yp5flg29hcsyv</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>68 m2</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Orientación este</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Avenida Departamental, La Florida</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>$ 420.000</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1 dormitorio</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1 estacionamiento</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>$65.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/mxzpf8o809m3dy8alzieat6b1uiy</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>37 m2</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Orientación este</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Avenida Departamental, La Florida</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>$ 370.000</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1 dormitorio</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Sin estacionamiento</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>$65.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/crhoxn4sufvznmxgi94c8k8mw2r4</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>37 m2</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Orientación este</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Coronel Souper, Estación Central</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>$ 340.000</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2 dormitorios</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Sin estacionamiento</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>$45.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/x7wleewqw5ylyygtt4c5sc1454n5</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>40 m2</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Orientación este</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Briones Luco, La Cisterna</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>$ 400.000</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2 dormitorios</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1 estacionamiento</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>$70.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/n08xehq8sj6a45mlvxah82jq4irr</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>45 m2</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Orientación este</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Avenida Departamental, La Florida</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>$ 350.000</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1 dormitorio</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Sin estacionamiento</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>$65.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/34v9ajtxjj66chujmrll4nic3v7g</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>37 m2</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Orientación este</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Avenida Departamental, La Florida</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>$ 470.000</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2 dormitorios</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Sin estacionamiento</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>$80.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/imw2ohlmf8g9c24sow54ajrg838u</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>63 m2</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Orientación oeste</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Belisario Prats, Independencia</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>$ 480.000</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2 dormitorios</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1 estacionamiento</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>$55.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/3otvb2hut4ps280916wxt0cg1bgj</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>57 m2</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Orientación norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Diagonal Santa Elena, San Joaquín</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>UF 10,50</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1 dormitorio</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1 estacionamiento</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>$55.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/vzwognh83fbgxqtp24dwxjzlqp0s</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>37 m2</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Orientación norte,oeste</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Diagonal Santa Elena, San Joaquín</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>UF 13,50</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2 dormitorios</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1 estacionamiento</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>$75.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/cfee7i9ig4rg4olhx0j2iqnfwesi</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>55 m2</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Orientación este,sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Diagonal Santa Elena, San Joaquín</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>UF 12,00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2 dormitorios</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1 estacionamiento</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>$70.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/drhti8biiagzrnjobi5h4vg3xk2t</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>51 m2</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Orientación norte,oeste</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Diagonal Santa Elena, San Joaquín</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>UF 9,00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1 dormitorio</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Sin estacionamiento</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>$55.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/ndlxf4ldtzktipymvhlgjh0hwa5s</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>37 m2</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Orientación norte,oeste</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Diagonal Santa Elena, San Joaquín</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>UF 14,00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2 dormitorios</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1 estacionamiento</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>$75.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/90c1mbm18gilmvo8p3kpw8e6yqf2</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>56 m2</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Orientación este,sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Avenida Víctor Jara, Estación Central</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>$ 380.000</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2 dormitorios</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Sin estacionamiento</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>$100.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/2m7bwtezgu4ytasvp613a3jh0nma</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>70 m2</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Orientación norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Belisario Prats, Independencia</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>$ 480.001</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2 dormitorios</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>1 estacionamiento</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>$55.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/vkp0fgxsb0mskihvvc4y3m0ug4vq</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>60 m2</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Orientación norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Dublé Almeyda, Ñuñoa</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>$ 850.000</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2 dormitorios</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2 estacionamientos</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>$120.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/1dqrfz3tlugdazvn5oslhm4oo3ts</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>76 m2</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Orientación este</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Briones Luco, La Cisterna</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>$ 400.000</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2 dormitorios</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>1 estacionamiento</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>$70.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/n08xehq8sj6a45mlvxah82jq4irr</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>45 m2</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Orientación este</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Avenida Irarrázaval, Ñuñoa</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>$ 610.000</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2 dormitorios</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>1 estacionamiento</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>$80.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/pb441zvxeaughfam6oldzxpo34dy</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>57 m2</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Orientación este</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Santa Isabel, Providencia</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>$ 300.000</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Estudio</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Sin estacionamiento</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>$45.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/m6rz2scpzsobyjbjq0a0ywhi5kk0</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>29 m2</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Orientación norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Belisario Prats, Independencia</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>$ 480.000</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2 dormitorios</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>1 estacionamiento</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>$55.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/3otvb2hut4ps280916wxt0cg1bgj</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>57 m2</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Orientación norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Belisario Prats, Independencia</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>$ 480.000</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2 dormitorios</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>1 estacionamiento</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>$55.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/3664kb35k81gs9zpm91312ytvoro</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>60 m2</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Orientación norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Avenida Departamental, La Florida</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>$ 400.000</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1 dormitorio</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Sin estacionamiento</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>$65.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/auztmrogqdcyei2fot5r7jfjb8du</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>37 m2</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Orientación oeste</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Avenida Departamental, La Florida</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>$ 400.000</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1 dormitorio</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Sin estacionamiento</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>$65.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/clfo6g3yp8s67jsmjiz7vnzeq2j5</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>37 m2</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Orientación norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Avenida Departamental, La Florida</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>$ 400.000</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1 dormitorio</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Sin estacionamiento</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>$65.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/jep7c60alctyzxnpjfgi2322eb5g</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>38 m2</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Orientación norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Diagonal Santa Elena, San Joaquín</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>UF 14,00</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2 dormitorios</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>1 estacionamiento</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>$75.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/90c1mbm18gilmvo8p3kpw8e6yqf2</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>56 m2</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Orientación este,sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Avenida Víctor Jara, Estación Central</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>$ 380.000</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2 dormitorios</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Sin estacionamiento</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>$100.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/2m7bwtezgu4ytasvp613a3jh0nma</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>70 m2</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Orientación norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Avenida San Carlos, Puente Alto</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>$ 620.000</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3 dormitorios</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Independiente</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>$35.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/zxels0x4vxszc3ehv4suwyfqa2ru</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>157 m2</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Orientación oeste</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
           <t>Vía Azul, Puerto Montt</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>UF 20,00</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3 dormitorios</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>1 estacionamiento</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>$65.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/u0ne8nu6qnmndnnehlylf4978wwy</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>80 m2</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Orientación sur,oeste</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>San Petersburgo, San Miguel</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>$ 340.000</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3 dormitorios</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Sin estacionamiento</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>$70.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/t40vfa8rc4u4w5lyuuylnei274kb</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>60 m2</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Orientación oeste</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>San Petersburgo, San Miguel</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>$ 340.000</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3 dormitorios</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Sin estacionamiento</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>$70.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/lkkaa35qj72saqgqhdjvcx30xs4y</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>60 m2</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Orientación norte,oeste</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Avenida Ricardo Cumming, Santiago</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>$ 290.000</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1 dormitorio</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Sin estacionamiento</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>$45.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/ni87ee70vxmfpem4xfyw9oxd9hya</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>38 m2</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Orientación norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Avenida Departamental, La Florida</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>$ 500.000</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2 dormitorios</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>1 estacionamiento</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>$75.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/b200qfqx9ewqfn5i4v0wtfhm1dn6</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>67 m2</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Orientación oeste</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Curicó, Santiago</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>$ 450.000</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2 dormitorios</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Sin estacionamiento</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>$130.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/i56j79qhscl7sm4nuwgft8poupe2</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>60 m2</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Orientación sur,oeste</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Avenida Departamental, La Florida</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>$ 450.000</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2 dormitorios</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Sin estacionamiento</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>$75.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/aofkyi1qep3jd4681qn4twlif00r</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>67 m2</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Orientación oeste</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Avenida Departamental, La Florida</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>$ 350.000</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1 dormitorio</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Sin estacionamiento</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>$50.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/eo7bztv56v2t5w1l8i76i65uxcfp</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>37 m2</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Orientación este</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>San Eugenio, Ñuñoa</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>$ 600.000</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2 dormitorios</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>1 estacionamiento</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>$100.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/oqmc3zu1xnmdxbgmrq9vcfivsq6u</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>48 m2</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Orientación sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>San Petersburgo, San Miguel</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>$ 340.000</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3 dormitorios</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Sin estacionamiento</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>$60.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/twdydzenq0265r38dn3aaf7jbdrf</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>60 m2</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Orientación este,norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Avenida Departamental, La Florida</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>UF 15,00</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2 dormitorios</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Sin estacionamiento</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>$80.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/gv95vguyp4xtavew4eyipn6ox38s</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>50 m2</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Orientación este</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Avenida Departamental, La Florida</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>UF 11,50</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1 dormitorio</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Sin estacionamiento</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>$65.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/ynza3hc4enhmsgq5ct93mjovqha2</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>35 m2</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Orientación oeste</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Avenida Departamental, La Florida</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>UF 12,00</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1 dormitorio</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>1 estacionamiento</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>$70.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/0gf6v8hpxf8gi1lirlrb8q8yorif</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>34 m2</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Orientación oeste</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Belisario Prats, Independencia</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>$ 495.000</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2 dormitorios</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>1 estacionamiento</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>$80.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/d381u59htqfl074rzrt37ubnk6qj</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>57 m2</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Orientación norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Belisario Prats, Independencia</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>$ 380.000</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1 dormitorio</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Sin estacionamiento</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>$80.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/6kwkveh9n919wv2hlgnz6wvjyhdd</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>43 m2</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Orientación sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Belisario Prats, Independencia</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>$ 335.000</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1 dormitorio</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Sin estacionamiento</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>$80.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/0qu549z9s5jdd9rst2sp0jhoywxt</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>37 m2</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Orientación sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Avenida Departamental, La Florida</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>UF 13,00</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1 dormitorio</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>1 estacionamiento</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>$85.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/uyhz717l8tanrla9j3itbwabao13</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>34 m2</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Orientación este</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Belisario Prats, Independencia</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>$ 505.000</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2 dormitorios</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>1 estacionamiento</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>$80.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/i1tlresssb23ysdh7dnndc6kcz1k</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>60 m2</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Orientación norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Belisario Prats, Independencia</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>$ 485.000</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2 dormitorios</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>1 estacionamiento</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>$80.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/d8eyzgrpxf9ajxph82orwnlihraq</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>57 m2</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Orientación sur,oeste</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Belisario Prats, Independencia</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>$ 355.000</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1 dormitorio</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Sin estacionamiento</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>$80.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/a507vm5kx41konbpcr31vjzf5kte</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>54 m2</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Orientación sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Belisario Prats, Independencia</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>$ 410.000</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1 dormitorio</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>1 estacionamiento</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>$80.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/pusn0edsai1pxk3woaviqrq4js55</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>42 m2</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Orientación sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Diagonal Santa Elena, San Joaquín</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>UF 10,00</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1 dormitorio</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>1 estacionamiento</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>$55.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/rni4i6zef2sqdm45gro0ppdt0i5k</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>37 m2</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Orientación norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Belisario Prats, Independencia</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>$ 505.000</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2 dormitorios</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>1 estacionamiento</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>$80.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/0kkuzgln94tquzg2azt7554tpa21</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>60 m2</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Orientación norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Belisario Prats, Independencia</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>$ 355.000</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1 dormitorio</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Sin estacionamiento</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>$80.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/vdve7fa5ua4rja0a5u5zvb2dii16</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>42 m2</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Orientación sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Belisario Prats, Independencia</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>$ 505.000</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2 dormitorios</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>1 estacionamiento</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>$80.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/ptyidyh1jmzntyfgzha6rpv8y3me</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>58 m2</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Orientación norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Belisario Prats, Independencia</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>$ 355.000</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1 dormitorio</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Sin estacionamiento</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>$80.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/n3f54dqnhx933zubtlzsg6i3kmk1</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>42 m2</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Orientación sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Belisario Prats, Independencia</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>$ 505.000</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2 dormitorios</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>1 estacionamiento</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>$80.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/loqloc66enindqgcq1nk7epctzd7</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>58 m2</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Orientación norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Belisario Prats, Independencia</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>$ 335.000</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1 dormitorio</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Sin estacionamiento</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>$80.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/0qu549z9s5jdd9rst2sp0jhoywxt</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>37 m2</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Orientación sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Belisario Prats, Independencia</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>$ 355.000</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1 dormitorio</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Sin estacionamiento</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>$80.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/hmsrjnxr8eqcf49gyunhrxk2g06y</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>42 m2</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Orientación sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Belisario Prats, Independencia</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>$ 505.000</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2 dormitorios</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>1 estacionamiento</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>$80.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/0a04udwvhzf2buai2fwuaf059g24</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>60 m2</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Orientación norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Belisario Prats, Independencia</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>$ 380.000</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1 dormitorio</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Sin estacionamiento</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>$80.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/8swfql82a79gxjklmem1litzad3u</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>43 m2</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Orientación sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Belisario Prats, Independencia</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>$ 495.000</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2 dormitorios</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>1 estacionamiento</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>$80.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/epo6sqvve1dofyg7tun1khh62f51</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>57 m2</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Orientación norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Belisario Prats, Independencia</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>$ 380.000</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1 dormitorio</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Sin estacionamiento</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>$80.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/6rekps5zhtb65e923szi1ky7j1b1</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>43 m2</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Orientación sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Apóstol Santiago, Estación Central</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>UF 8,44</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1 dormitorio</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Sin estacionamiento</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>$60.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/utc39sbm7z7n6g9sbfdqruwbpr3r</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>37 m2</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Orientación norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Oscar Viel Balmaceda, San Bernardo</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>UF 16,17</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>3 dormitorios</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Independiente</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>$20.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/s192d890qfma2vij4a93w5yc4tt6</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>201 m2</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Orientación este</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Oscar Viel Balmaceda, San Bernardo</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>UF 16,17</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>3 dormitorios</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Independiente</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>$20.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/94x0l37hyh6j5q9eja9t0u3z9rul</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>199 m2</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Orientación este</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Oscar Viel Balmaceda, San Bernardo</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>UF 16,17</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3 dormitorios</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Independiente</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>$20.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/zszpqclx23970e784n99zvo6b20y</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>199 m2</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Orientación este</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Briones Luco, La Cisterna</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>$ 420.000</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2 dormitorios</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>1 estacionamiento</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>$90.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/sgmfc62aehv8azvr7zobf588my81</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>50 m2</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Orientación este</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Belisario Prats, Independencia</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>$ 505.000</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2 dormitorios</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>1 estacionamiento</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>$80.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/loqloc66enindqgcq1nk7epctzd7</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>58 m2</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>Orientación norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Oscar Viel Balmaceda, San Bernardo</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>UF 16,17</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>3 dormitorios</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Independiente</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>$20.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/76mltxe419253urtbatylggk9j6g</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>198 m2</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Orientación este</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Avenida Departamental, La Florida</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>$ 400.000</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1 dormitorio</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Sin estacionamiento</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>$50.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/2x4tczq9alxu3dji1oepqsbtg4fb</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>37 m2</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Orientación oeste</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Avenida Departamental, La Florida</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>UF 18,00</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2 dormitorios</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>1 estacionamiento</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>$70.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/f22m74duk67bz39gmrhhkny2054c</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>70 m2</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Orientación este</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Zañartu, Ñuñoa</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>$ 430.000</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1 dormitorio</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>1 estacionamiento</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>$50.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/ex387h8wpholw0jtkiw2mkpsdizc</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>36 m2</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Orientación oeste</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Las Hortensias, Providencia</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>$ 1.200.000</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>3 dormitorios</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>2 estacionamientos</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>$250.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/3vu2lfydabrgorrsur0oa1g12ayi</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>150 m2</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Orientación este</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Apóstol Santiago, Estación Central</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>$ 340.000</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1 dormitorio</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>1 estacionamiento</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>$65.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/nfoy8cjlxidny9o0uo5toxr2iu5t</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>36 m2</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Orientación oeste</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Álvarez de Toledo, San Miguel</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>$ 335.000</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1 dormitorio</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>1 estacionamiento</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>$40.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/abo2titziujrjvu0q3pjzc3jlgcs</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>35 m2</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Orientación oeste</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Teodoro Schmidt, San Miguel</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>$ 680.000</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>3 dormitorios</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>1 estacionamiento</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>$100.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/0ap71ug24e5v5hrw6o0fjvckgxwt</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>98 m2</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Orientación este</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Belisario Prats, Independencia</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>$ 365.000</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1 dormitorio</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>1 estacionamiento</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>$75.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/l4dvfdwlgfv372uun69yg4qta2my</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>37 m2</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Orientación sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Avenida Departamental, La Florida</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>$ 350.000</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1 dormitorio</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Sin estacionamiento</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>$50.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/3ymd5okcsggcynov5hv9ydypmhwr</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>37 m2</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Orientación sur,oeste</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Belisario Prats, Independencia</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>$ 365.000</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1 dormitorio</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>1 estacionamiento</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>CLP</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/1cokr0ajqf6yy593ykwg7ooaqx6g</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>30/12/2022</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>37 m2</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>Orientación sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Avenida Departamental, La Florida</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>UF 17,00</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2 dormitorios</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>1 estacionamiento</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>$70.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/f96wh0v92bs5lg0r8l6oymx3iqxp</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>63 m2</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Orientación este</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Avenida Departamental, La Florida</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>UF 10,00</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1 dormitorio</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Sin estacionamiento</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>$50.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/ppx7pd84pizk9qpusidv9onnguzm</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>37 m2</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>Orientación oeste</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Avenida Departamental, La Florida</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>$ 400.000</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1 dormitorio</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Sin estacionamiento</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>$50.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/2x4tczq9alxu3dji1oepqsbtg4fb</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>37 m2</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Orientación oeste</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Avenida Departamental, La Florida</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>$ 567.000</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2 dormitorios</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>1 estacionamiento</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>$75.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/1bkgwt1393uhjqkwyc9mz28ak3xa</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>67 m2</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Orientación oeste</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Avenida Departamental, La Florida</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>$ 375.000</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1 dormitorio</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>1 estacionamiento</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>$50.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/85alsra3fzqm48yrk272c1wjwh2n</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>37 m2</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Orientación norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Avenida Departamental, La Florida</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>$ 380.000</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1 dormitorio</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Sin estacionamiento</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>$50.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/31gfmrbaytulxw4kwq8a6wzy4lvz</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>37 m2</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>Orientación norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Avenida Departamental, La Florida</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>$ 620.000</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2 dormitorios</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>1 estacionamiento</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>$65.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/gllbwfxlmf5klgsi98fv9dy2zf15</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>63 m2</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Orientación este,norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Avenida Departamental, La Florida</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>$ 500.000</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2 dormitorios</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>1 estacionamiento</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>$65.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/9a8wnrm8018cqf5bc6lyq41uuj7z</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>63 m2</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>Orientación este</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Avenida Departamental, La Florida</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>$ 350.000</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1 dormitorio</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Sin estacionamiento</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>$50.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/dpk640n57gvps1wo8cbpk7n0c359</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>37 m2</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Orientación oeste</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Avenida Departamental, La Florida</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>$ 360.000</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1 dormitorio</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Sin estacionamiento</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>$50.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/5hcj458fjx0thlbabll08zrikdhh</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>37 m2</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Orientación este</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Avenida Departamental, La Florida</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>$ 450.000</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2 dormitorios</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Sin estacionamiento</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>$65.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/lge0ko4jzxbcgn1hwh5qwgxrdkku</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>54 m2</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>Orientación este</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Avenida Departamental, La Florida</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>$ 360.000</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1 dormitorio</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Sin estacionamiento</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>$50.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/32eqpoxazaas506u8k1u7cqk6b4d</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>37 m2</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>Orientación oeste</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Avenida Departamental, La Florida</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>UF 17,00</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2 dormitorios</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>1 estacionamiento</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>$70.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/f96wh0v92bs5lg0r8l6oymx3iqxp</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>63 m2</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>Orientación este</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Avenida Departamental, La Florida</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>$ 550.000</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2 dormitorios</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Sin estacionamiento</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>$60.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/szuputh611x7wrwp9uxwkbtqtss9</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>67 m2</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>Orientación oeste</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Avenida Departamental, La Florida</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>$ 530.000</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2 dormitorios</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Sin estacionamiento</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>$60.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/rlwz11q3hzwyjouoswv85fl52vbu</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>65 m2</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>Orientación este</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Avenida Departamental, La Florida</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>$ 550.000</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2 dormitorios</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Sin estacionamiento</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>$60.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/nfas3oxq2c4hv2icwhnbp4dz2wc9</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>66 m2</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>Orientación oeste</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Avenida Departamental, La Florida</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>$ 500.000</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2 dormitorios</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Sin estacionamiento</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>$60.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/4rsehq1uvn4gpzwxs0k0v9w4at4y</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>65 m2</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>Orientación este</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Avenida Departamental, La Florida</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>$ 380.000</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1 dormitorio</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Sin estacionamiento</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>$60.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/lij12cjxunx1dyzs8hvisd4f2939</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>37 m2</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>Orientación oeste</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Avenida Departamental, La Florida</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>$ 530.000</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2 dormitorios</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>1 estacionamiento</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>$60.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/4chhbm2xmmclin5762sl6lemho8b</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>63 m2</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>Orientación oeste</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Avenida Departamental, La Florida</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>$ 530.000</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2 dormitorios</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>1 estacionamiento</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>$60.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/eqtieszwzd7eivisi1aznp8po4z3</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>63 m2</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>Orientación oeste</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Conde del Maule, Estación Central</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>$ 410.000</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2 dormitorios</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Sin estacionamiento</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>$70.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/irrsje35e8g8ycmogenj5mmjfczv</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>54 m2</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>Orientación oeste</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Departamental, La Florida</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>$ 550.000</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2 dormitorios</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Sin estacionamiento</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>$65.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/6y7ypv15j8rfghlzyejscn5gwypd</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>54 m2</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>Orientación este</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Avenida Departamental, La Florida</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>$ 450.000</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2 dormitorios</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Sin estacionamiento</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>$65.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/lge0ko4jzxbcgn1hwh5qwgxrdkku</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>54 m2</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>Orientación este</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Avenida Departamental, La Florida</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>$ 550.000</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2 dormitorios</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Sin estacionamiento</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>$65.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/e9j679pzicqnwz1bcff2q10gdy8r</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>54 m2</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>Orientación este</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Avenida Departamental, La Florida</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>$ 450.000</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1 dormitorio</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Sin estacionamiento</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>$65.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/31j6nc26s4taqfakb834pqq1gzba</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>37 m2</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>Orientación oeste</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Avenida Departamental, La Florida</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>$ 500.000</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2 dormitorios</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>2 estacionamientos</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>$65.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/hzbsrxu21jjgcll85s1cpqr9tfwd</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>54 m2</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>Orientación oeste</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Avenida Departamental, La Florida</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>$ 470.000</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2 dormitorios</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>1 estacionamiento</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>$65.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/omb671c4wmei4c7acvv2xchi3ko7</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>54 m2</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>Orientación oeste</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Avenida Departamental, La Florida</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>$ 470.000</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2 dormitorios</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>1 estacionamiento</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>$65.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/rikqoruidb5okj1jfbwfp1ercp6o</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>54 m2</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>Orientación oeste</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Avenida Departamental, La Florida</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>$ 420.000</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1 dormitorio</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Sin estacionamiento</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>$75.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/vyv1urgevotfj66xuvgc8h9svjoe</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>44 m2</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>Orientación oeste</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Avenida Departamental, La Florida</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>$ 600.000</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2 dormitorios</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>1 estacionamiento</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>$75.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/jmoihnp0jxm5kgiq4i1sgrt666vi</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>65 m2</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>Orientación oeste</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Avenida Departamental, La Florida</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>$ 420.000</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1 dormitorio</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Sin estacionamiento</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>$40.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/2vncwhtsbhga8q0hsuj6e1xjvoc8</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>37 m2</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>Orientación oeste</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Avenida Departamental, La Florida</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>$ 565.000</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2 dormitorios</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>1 estacionamiento</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>$40.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/jtvq23ubkiubc8y30ujmbx44ad8w</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>55 m2</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>Orientación este</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Avenida Departamental, La Florida</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>UF 15,07</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2 dormitorios</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>1 estacionamiento</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>$75.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/o6bqqbfc77orpfyzd5am7bnssme7</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>68 m2</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>Orientación oeste</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Avenida Departamental, La Florida</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>UF 14,71</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2 dormitorios</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>1 estacionamiento</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>$75.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/924f9kjqntq6woyxnj3x8dhpztxg</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>68 m2</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>Orientación oeste</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Avenida Departamental, La Florida</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>UF 14,71</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2 dormitorios</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>1 estacionamiento</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>$75.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/uoxbhooozbvjjoyznxm3s7dgjp3v</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>67 m2</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>Orientación oeste</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Avenida Departamental, La Florida</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>UF 14,71</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2 dormitorios</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>1 estacionamiento</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>$75.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/nkffeotfcyuzslgbb2m1rg2bwzu2</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>68 m2</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>Orientación oeste</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Avenida Departamental, La Florida</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>UF 14,71</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2 dormitorios</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>1 estacionamiento</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>$75.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/lb94xwv4q0u1tlfqltnluzt23n5i</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>68 m2</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>Orientación oeste</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Avenida Departamental, La Florida</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>UF 15,07</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2 dormitorios</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>1 estacionamiento</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>$75.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/pzghivx9qcdk5mfkhwsj1s7bu2lg</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>68 m2</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>Orientación oeste</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Avenida Departamental, La Florida</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>UF 14,71</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2 dormitorios</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>1 estacionamiento</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>$75.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/k79bsihi7p5x7yes5af94o9e5yl8</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>68 m2</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>Orientación oeste</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Avenida Departamental, La Florida</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>UF 14,71</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2 dormitorios</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>1 estacionamiento</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>$75.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/leln6z09dcggzvcy52po3egnbk37</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>68 m2</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>Orientación oeste</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Avenida Departamental, La Florida</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>UF 15,02</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2 dormitorios</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>1 estacionamiento</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>$75.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/66bp86jw3ph5n9duic6npce9uweu</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>68 m2</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>Orientación oeste</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Avenida Departamental, La Florida</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>$ 470.000</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1 dormitorio</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>1 estacionamiento</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>$45.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/h1ozs872v4v3qi4178up4ruxm5rm</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>37 m2</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>Orientación norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Avenida Departamental, La Florida</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>$ 400.000</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>1 dormitorio</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>1 estacionamiento</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>$50.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/tu9pqzty510ie4x95urnspqndif5</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>37 m2</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>Orientación norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Avenida Departamental, La Florida</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>$ 380.000</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>1 dormitorio</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Sin estacionamiento</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>$45.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/vrmuihjjzly6bc3zu41eigdnbq5t</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>37 m2</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>Orientación este</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Departamental, La Florida</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>$ 500.000</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2 dormitorios</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>1 estacionamiento</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>$75.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/y3ztq9eqiottmoizsd6u5b0rce1q</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>55 m2</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>Orientación este</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Avenida Departamental, La Florida</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>UF 14,00</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>1 dormitorio</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>1 estacionamiento</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>$65.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/meydqbm7gktw8d0s3wmx03l03lyq</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>37 m2</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>Orientación este</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Vía Azul, Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>UF 15,39</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2 dormitorios</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>1 estacionamiento</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>$50.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/tcekdfir9v5wtocgev4pk7f6x83a</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>52 m2</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>Orientación este</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Vía Azul, Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>UF 15,56</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2 dormitorios</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>1 estacionamiento</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>$50.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/6uyf0yy9wjtam0vw9xzvvg391o5j</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>52 m2</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>Orientación este</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Vía Azul, Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>UF 15,79</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2 dormitorios</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>1 estacionamiento</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>$50.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/9djwc77e0lb5ejdsq4ljll75scwq</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>52 m2</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>Orientación sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Vía Azul, Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>UF 15,39</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2 dormitorios</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>1 estacionamiento</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>$50.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/htfguzjlb5i1phqz7127r4e3x3jj</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>52 m2</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>Orientación sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Vía Azul, Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>UF 15,22</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2 dormitorios</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>1 estacionamiento</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>$50.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/xl0359a4jbnh3fwlzv6ckpq3bd1p</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>53 m2</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>Orientación sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Vía Azul, Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>UF 15,39</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2 dormitorios</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>1 estacionamiento</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>$50.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/4t3ry5wa4tuhmf63qrvqviuhmtnp</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>52 m2</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>Orientación sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Vía Azul, Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
         <is>
           <t>UF 13,85</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D138" t="inlineStr">
         <is>
           <t>2 dormitorios</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>1 estacionamiento</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>1 estacionamiento</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
         <is>
           <t>$50.000 / Mes</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/2et6sm4u1aerk3yqqtl2ilsg55ho</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>52 m2</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>Orientación norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Vía Azul, Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>UF 13,85</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2 dormitorios</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>1 estacionamiento</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>$50.000 / Mes</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
         <is>
           <t>https://prod-tangoapp-files.s3.us-east-1.amazonaws.com/2nljqhz9z96s0utc8s30szxpjim8</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H139" t="inlineStr">
         <is>
           <t>Sí</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="I139" t="inlineStr">
         <is>
           <t>52 m2</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="J139" t="inlineStr">
         <is>
           <t>Orientación sur</t>
         </is>
